--- a/_ConfigExcels/Datas/chest_loop.xlsx
+++ b/_ConfigExcels/Datas/chest_loop.xlsx
@@ -434,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -482,7 +482,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3">
         <v>3001</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3">
         <v>3002</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3">
         <v>3003</v>
@@ -506,25 +506,41 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3">
-        <v>3004</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3">
         <v>3005</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="3"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
